--- a/src/main/resources/static/fileMau/fileMauVoucher.xlsx
+++ b/src/main/resources/static/fileMau/fileMauVoucher.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DATN\DATN_BE_2003Shoes\src\main\resources\static\fileMau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319BD3DE-47D3-45C3-B512-C742FEB5959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6113D4D-EFE5-41B2-9AD6-D3B5C23E4104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5B39717-D5A6-446F-B264-D4DBCAC40ED0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" xr2:uid="{E5B39717-D5A6-446F-B264-D4DBCAC40ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,31 +157,6 @@
   </si>
   <si>
     <r>
-      <t>Giá trị tối thiểu của hóa đơn (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Giá trị giảm (</t>
     </r>
     <r>
@@ -287,6 +262,61 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve">) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Ngày bắt đầu phải lớn hơn ngày hiện tại)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Định dạng MM/dd/yyyy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ngày kết thúc (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t xml:space="preserve">)
 </t>
     </r>
@@ -297,12 +327,13 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(Ngày bắt đầu phải lớn hơn ngày hiện tại)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ngày kết thúc (</t>
+      <t>(Ngày kết thúc phải lớn hơn ngày bắt đầu)
+Định dạng MM/dd/yyyy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Giá trị tối thiểu của hóa đơn (</t>
     </r>
     <r>
       <rPr>
@@ -324,15 +355,6 @@
       </rPr>
       <t xml:space="preserve">)
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Ngày kết thúc phải lớn hơn ngày bắt đầu)</t>
     </r>
   </si>
 </sst>
@@ -735,7 +757,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -767,23 +789,23 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="4"/>
     </row>

--- a/src/main/resources/static/fileMau/fileMauVoucher.xlsx
+++ b/src/main/resources/static/fileMau/fileMauVoucher.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DATN\DATN_BE_2003Shoes\src\main\resources\static\fileMau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6113D4D-EFE5-41B2-9AD6-D3B5C23E4104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4D489A-6BA1-4794-B174-CDD64369E1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" xr2:uid="{E5B39717-D5A6-446F-B264-D4DBCAC40ED0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5B39717-D5A6-446F-B264-D4DBCAC40ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,8 +353,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">)
-</t>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -756,8 +755,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
